--- a/docs/tables/AppSec_Cons.xlsx
+++ b/docs/tables/AppSec_Cons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshekhovtsova\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsemenov\cyberorda.github.io\docs\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFAB0822-49F2-4751-A7F9-1107D1714980}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7139B46B-6DBF-4359-AB7F-7D2834F1D781}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22400" windowHeight="10130" xr2:uid="{D07FF462-9CCD-4394-9EB2-5BBA270BE507}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12130" xr2:uid="{D07FF462-9CCD-4394-9EB2-5BBA270BE507}"/>
   </bookViews>
   <sheets>
     <sheet name="AppSec Consulting" sheetId="2" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
   <si>
     <t>%</t>
   </si>
@@ -202,39 +202,15 @@
     <t>ч.</t>
   </si>
   <si>
-    <t>Бюджет команды на исправление дефектов AS IS</t>
-  </si>
-  <si>
     <t>Выявление дефектов на более ранних стадиях разработки</t>
   </si>
   <si>
-    <t>Устранение дефектов c PT</t>
-  </si>
-  <si>
-    <t>ИСПОЛЬЗОВАНИЕ PT</t>
-  </si>
-  <si>
-    <t>Количество часов на исправление дефектов c PT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Целевой объем технического долга </t>
   </si>
   <si>
-    <t>Целевая плотность риска безопасности c PT</t>
-  </si>
-  <si>
-    <t>Количество дефектов к устранению c PT</t>
-  </si>
-  <si>
-    <t>Бюджет команды на исправление дефектов c PT</t>
-  </si>
-  <si>
     <t>Дисконтирование потенциальной экономии</t>
   </si>
   <si>
-    <t>Количество дефектов к устранению с PT</t>
-  </si>
-  <si>
     <t>Трудозатраты на исправление дефекта в Dev</t>
   </si>
   <si>
@@ -262,30 +238,12 @@
     <t>Лицензии на ПО</t>
   </si>
   <si>
-    <t>OSA (AppSec.Track)</t>
-  </si>
-  <si>
-    <t>SCA (AppSec.Track)</t>
-  </si>
-  <si>
-    <t>CSP (PT CS/Tron)</t>
-  </si>
-  <si>
-    <t>DAST (PT BB)</t>
-  </si>
-  <si>
     <t>Затраты на внедрение процесса разработки защищенного ПО</t>
   </si>
   <si>
     <t>Стоимость 1 инженера-разработчика</t>
   </si>
   <si>
-    <t>SAST (PT AI)</t>
-  </si>
-  <si>
-    <t>ASOC (AppSec.Hub)</t>
-  </si>
-  <si>
     <t>Размер команды</t>
   </si>
   <si>
@@ -317,6 +275,42 @@
   </si>
   <si>
     <t>ROSI (Return on Investment for Security, 3 года)</t>
+  </si>
+  <si>
+    <t>SAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASOC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCA </t>
+  </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>DAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бюджет команды на исправление дефектов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Целевая плотность риска безопасности </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество дефектов к устранению </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество часов на исправление дефектов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Устранение дефектов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИСПОЛЬЗОВАНИЕ </t>
   </si>
 </sst>
 </file>
@@ -895,10 +889,10 @@
   <dimension ref="A1:Q128"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -925,7 +919,7 @@
     <row r="2" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>8</v>
@@ -1372,7 +1366,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>11</v>
@@ -1403,7 +1397,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>11</v>
@@ -1434,7 +1428,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>11</v>
@@ -1465,7 +1459,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>11</v>
@@ -1514,7 +1508,7 @@
     <row r="31" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>21</v>
@@ -1667,7 +1661,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>21</v>
@@ -1697,7 +1691,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>0</v>
@@ -1730,10 +1724,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1746,7 +1740,7 @@
     <row r="41" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>0</v>
@@ -1771,7 +1765,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>3</v>
@@ -1802,7 +1796,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>0</v>
@@ -1837,13 +1831,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>3</v>
@@ -1990,7 +1984,7 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>3</v>
@@ -2137,7 +2131,7 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="5" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>11</v>
@@ -2165,7 +2159,7 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>11</v>
@@ -2196,7 +2190,7 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>11</v>
@@ -2227,7 +2221,7 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>11</v>
@@ -2258,7 +2252,7 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>11</v>
@@ -2289,7 +2283,7 @@
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>21</v>
@@ -2319,7 +2313,7 @@
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>0</v>
@@ -2348,7 +2342,7 @@
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>21</v>
@@ -2377,7 +2371,7 @@
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B69" s="9" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>21</v>
@@ -2405,7 +2399,7 @@
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B70" s="9" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>21</v>
@@ -2434,7 +2428,7 @@
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B71" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>0</v>
@@ -2465,7 +2459,7 @@
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B73" s="27" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
@@ -2494,7 +2488,7 @@
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B74" s="30" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>21</v>
@@ -2524,7 +2518,7 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B75" s="29" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>21</v>
@@ -2552,7 +2546,7 @@
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B76" s="29" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>6</v>
@@ -2575,7 +2569,7 @@
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B77" s="30" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>21</v>
@@ -2605,7 +2599,7 @@
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B78" s="29" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>21</v>
@@ -2628,7 +2622,7 @@
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="29" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>21</v>
@@ -2651,7 +2645,7 @@
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B80" s="30" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>21</v>
@@ -2681,7 +2675,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B81" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>21</v>
@@ -2707,7 +2701,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B82" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>21</v>
@@ -2730,7 +2724,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B83" s="29" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>21</v>
@@ -2753,7 +2747,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B84" s="29" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>21</v>
@@ -2776,7 +2770,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B85" s="29" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>21</v>
@@ -2799,7 +2793,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B86" s="29" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>21</v>
@@ -2830,7 +2824,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B88" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -2856,7 +2850,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B89" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>21</v>
@@ -2886,7 +2880,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B90" s="31" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>21</v>
@@ -2915,7 +2909,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B91" s="31" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>21</v>
@@ -2944,7 +2938,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B92" s="32" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>0</v>
@@ -2975,7 +2969,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B93" s="32" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F93" s="33">
         <f>F$88*0.5</f>
@@ -3000,7 +2994,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B94" s="32" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F94" s="33">
         <f>1/(1+F92)^F93</f>
@@ -3025,7 +3019,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B95" s="36" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>21</v>
@@ -3057,10 +3051,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="38" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>0</v>
